--- a/TradingSimula_18-2022/TF-Boll-RiskFilt2_1R.xlsx
+++ b/TradingSimula_18-2022/TF-Boll-RiskFilt2_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$174</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$174</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,7 +594,7 @@
         <v>40207</v>
       </c>
       <c r="B3" t="n">
-        <v>3248.000000000002</v>
+        <v>-4063.800000000001</v>
       </c>
     </row>
     <row r="4">
@@ -602,7 +602,7 @@
         <v>40235</v>
       </c>
       <c r="B4" t="n">
-        <v>-1543.599999999996</v>
+        <v>-11001.3775</v>
       </c>
     </row>
     <row r="5">
@@ -610,7 +610,7 @@
         <v>40268</v>
       </c>
       <c r="B5" t="n">
-        <v>-2498.599999999994</v>
+        <v>-4238.877499999995</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         <v>40298</v>
       </c>
       <c r="B6" t="n">
-        <v>-1503.599999999997</v>
+        <v>-6554.852499999993</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>40326</v>
       </c>
       <c r="B7" t="n">
-        <v>-2988.599999999995</v>
+        <v>748.7725000000019</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>40359</v>
       </c>
       <c r="B8" t="n">
-        <v>3567.650000000014</v>
+        <v>4044.085500000005</v>
       </c>
     </row>
     <row r="9">
@@ -642,7 +642,7 @@
         <v>40389</v>
       </c>
       <c r="B9" t="n">
-        <v>8083.000000000007</v>
+        <v>15567.52250000001</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         <v>40421</v>
       </c>
       <c r="B10" t="n">
-        <v>10082.10000000001</v>
+        <v>25209.71050000001</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         <v>40451</v>
       </c>
       <c r="B11" t="n">
-        <v>25054.30000000001</v>
+        <v>35743.46050000001</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>40480</v>
       </c>
       <c r="B12" t="n">
-        <v>39391.10000000001</v>
+        <v>48950.17250000002</v>
       </c>
     </row>
     <row r="13">
@@ -674,7 +674,7 @@
         <v>40512</v>
       </c>
       <c r="B13" t="n">
-        <v>36672.7</v>
+        <v>42391.38000000002</v>
       </c>
     </row>
     <row r="14">
@@ -682,7 +682,7 @@
         <v>40543</v>
       </c>
       <c r="B14" t="n">
-        <v>55526.1</v>
+        <v>62538.95700000003</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         <v>40574</v>
       </c>
       <c r="B15" t="n">
-        <v>69413.10000000001</v>
+        <v>66264.27000000003</v>
       </c>
     </row>
     <row r="16">
@@ -698,7 +698,7 @@
         <v>40602</v>
       </c>
       <c r="B16" t="n">
-        <v>78389.10000000001</v>
+        <v>70537.08200000002</v>
       </c>
     </row>
     <row r="17">
@@ -706,7 +706,7 @@
         <v>40633</v>
       </c>
       <c r="B17" t="n">
-        <v>82889.10000000001</v>
+        <v>57354.72500000003</v>
       </c>
     </row>
     <row r="18">
@@ -714,7 +714,7 @@
         <v>40662</v>
       </c>
       <c r="B18" t="n">
-        <v>73184.10000000001</v>
+        <v>62729.09800000001</v>
       </c>
     </row>
     <row r="19">
@@ -722,7 +722,7 @@
         <v>40694</v>
       </c>
       <c r="B19" t="n">
-        <v>71784.10000000001</v>
+        <v>63835.89800000002</v>
       </c>
     </row>
     <row r="20">
@@ -730,7 +730,7 @@
         <v>40724</v>
       </c>
       <c r="B20" t="n">
-        <v>69494.10000000001</v>
+        <v>57569.33500000001</v>
       </c>
     </row>
     <row r="21">
@@ -738,7 +738,7 @@
         <v>40753</v>
       </c>
       <c r="B21" t="n">
-        <v>73380.5</v>
+        <v>67047.46000000001</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>40786</v>
       </c>
       <c r="B22" t="n">
-        <v>73234.90000000001</v>
+        <v>81197.46000000001</v>
       </c>
     </row>
     <row r="23">
@@ -754,7 +754,7 @@
         <v>40816</v>
       </c>
       <c r="B23" t="n">
-        <v>70676.10000000001</v>
+        <v>93113.71000000001</v>
       </c>
     </row>
     <row r="24">
@@ -762,7 +762,7 @@
         <v>40847</v>
       </c>
       <c r="B24" t="n">
-        <v>70676.10000000001</v>
+        <v>72825.98</v>
       </c>
     </row>
     <row r="25">
@@ -770,7 +770,7 @@
         <v>40877</v>
       </c>
       <c r="B25" t="n">
-        <v>70373.70000000001</v>
+        <v>75150.98</v>
       </c>
     </row>
     <row r="26">
@@ -778,7 +778,7 @@
         <v>40907</v>
       </c>
       <c r="B26" t="n">
-        <v>70810.5</v>
+        <v>70809.7205</v>
       </c>
     </row>
     <row r="27">
@@ -786,7 +786,7 @@
         <v>40939</v>
       </c>
       <c r="B27" t="n">
-        <v>69293.3</v>
+        <v>69748.7825</v>
       </c>
     </row>
     <row r="28">
@@ -794,7 +794,7 @@
         <v>40968</v>
       </c>
       <c r="B28" t="n">
-        <v>69405.3</v>
+        <v>77509.21750000001</v>
       </c>
     </row>
     <row r="29">
@@ -802,7 +802,7 @@
         <v>40998</v>
       </c>
       <c r="B29" t="n">
-        <v>69069.30000000002</v>
+        <v>88766.85250000001</v>
       </c>
     </row>
     <row r="30">
@@ -810,7 +810,7 @@
         <v>41029</v>
       </c>
       <c r="B30" t="n">
-        <v>68056.10000000001</v>
+        <v>83867.30999999998</v>
       </c>
     </row>
     <row r="31">
@@ -818,7 +818,7 @@
         <v>41060</v>
       </c>
       <c r="B31" t="n">
-        <v>69960.10000000001</v>
+        <v>68775.185</v>
       </c>
     </row>
     <row r="32">
@@ -826,7 +826,7 @@
         <v>41089</v>
       </c>
       <c r="B32" t="n">
-        <v>67188.5</v>
+        <v>58029.8775</v>
       </c>
     </row>
     <row r="33">
@@ -834,7 +834,7 @@
         <v>41121</v>
       </c>
       <c r="B33" t="n">
-        <v>67188.5</v>
+        <v>59172.3775</v>
       </c>
     </row>
     <row r="34">
@@ -842,7 +842,7 @@
         <v>41152</v>
       </c>
       <c r="B34" t="n">
-        <v>67188.5</v>
+        <v>57248.978</v>
       </c>
     </row>
     <row r="35">
@@ -850,7 +850,7 @@
         <v>41180</v>
       </c>
       <c r="B35" t="n">
-        <v>67188.5</v>
+        <v>57010.25749999999</v>
       </c>
     </row>
     <row r="36">
@@ -858,7 +858,7 @@
         <v>41213</v>
       </c>
       <c r="B36" t="n">
-        <v>65038.50000000001</v>
+        <v>52239.00749999999</v>
       </c>
     </row>
     <row r="37">
@@ -866,7 +866,7 @@
         <v>41243</v>
       </c>
       <c r="B37" t="n">
-        <v>65038.50000000001</v>
+        <v>48576.1825</v>
       </c>
     </row>
     <row r="38">
@@ -874,7 +874,7 @@
         <v>41274</v>
       </c>
       <c r="B38" t="n">
-        <v>63940.90000000001</v>
+        <v>56894.05750000002</v>
       </c>
     </row>
     <row r="39">
@@ -882,7 +882,7 @@
         <v>41305</v>
       </c>
       <c r="B39" t="n">
-        <v>67423.50000000001</v>
+        <v>61403.21500000003</v>
       </c>
     </row>
     <row r="40">
@@ -890,15 +890,15 @@
         <v>41333</v>
       </c>
       <c r="B40" t="n">
-        <v>67898.89999999999</v>
+        <v>70435.41750000004</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41361</v>
+        <v>41362</v>
       </c>
       <c r="B41" t="n">
-        <v>69075.5</v>
+        <v>76597.91750000004</v>
       </c>
     </row>
     <row r="42">
@@ -906,7 +906,7 @@
         <v>41394</v>
       </c>
       <c r="B42" t="n">
-        <v>66452.10000000001</v>
+        <v>78899.41000000005</v>
       </c>
     </row>
     <row r="43">
@@ -914,7 +914,7 @@
         <v>41425</v>
       </c>
       <c r="B43" t="n">
-        <v>69118.10000000001</v>
+        <v>83254.38250000005</v>
       </c>
     </row>
     <row r="44">
@@ -922,7 +922,7 @@
         <v>41453</v>
       </c>
       <c r="B44" t="n">
-        <v>65292.30000000002</v>
+        <v>76139.06950000004</v>
       </c>
     </row>
     <row r="45">
@@ -930,7 +930,7 @@
         <v>41486</v>
       </c>
       <c r="B45" t="n">
-        <v>65236.30000000002</v>
+        <v>74498.75750000004</v>
       </c>
     </row>
     <row r="46">
@@ -938,7 +938,7 @@
         <v>41516</v>
       </c>
       <c r="B46" t="n">
-        <v>63223.90000000002</v>
+        <v>75454.06950000004</v>
       </c>
     </row>
     <row r="47">
@@ -946,7 +946,7 @@
         <v>41547</v>
       </c>
       <c r="B47" t="n">
-        <v>63586.95000000003</v>
+        <v>77842.25750000004</v>
       </c>
     </row>
     <row r="48">
@@ -954,7 +954,7 @@
         <v>41578</v>
       </c>
       <c r="B48" t="n">
-        <v>68646.05000000002</v>
+        <v>77442.155</v>
       </c>
     </row>
     <row r="49">
@@ -962,7 +962,7 @@
         <v>41607</v>
       </c>
       <c r="B49" t="n">
-        <v>66565.85000000002</v>
+        <v>82332.405</v>
       </c>
     </row>
     <row r="50">
@@ -970,7 +970,7 @@
         <v>41639</v>
       </c>
       <c r="B50" t="n">
-        <v>63216.80000000002</v>
+        <v>89559.00749999998</v>
       </c>
     </row>
     <row r="51">
@@ -978,7 +978,7 @@
         <v>41670</v>
       </c>
       <c r="B51" t="n">
-        <v>64180.00000000003</v>
+        <v>79739.00749999999</v>
       </c>
     </row>
     <row r="52">
@@ -986,7 +986,7 @@
         <v>41698</v>
       </c>
       <c r="B52" t="n">
-        <v>61626.20000000003</v>
+        <v>79009.85749999998</v>
       </c>
     </row>
     <row r="53">
@@ -994,7 +994,7 @@
         <v>41729</v>
       </c>
       <c r="B53" t="n">
-        <v>64816.20000000003</v>
+        <v>78050.55749999997</v>
       </c>
     </row>
     <row r="54">
@@ -1002,7 +1002,7 @@
         <v>41759</v>
       </c>
       <c r="B54" t="n">
-        <v>64516.20000000003</v>
+        <v>81463.0575</v>
       </c>
     </row>
     <row r="55">
@@ -1010,7 +1010,7 @@
         <v>41789</v>
       </c>
       <c r="B55" t="n">
-        <v>63216.20000000003</v>
+        <v>75418.34250000003</v>
       </c>
     </row>
     <row r="56">
@@ -1018,7 +1018,7 @@
         <v>41820</v>
       </c>
       <c r="B56" t="n">
-        <v>64981.20000000003</v>
+        <v>76700.58250000002</v>
       </c>
     </row>
     <row r="57">
@@ -1026,7 +1026,7 @@
         <v>41851</v>
       </c>
       <c r="B57" t="n">
-        <v>71499.60000000003</v>
+        <v>78284.75750000007</v>
       </c>
     </row>
     <row r="58">
@@ -1034,7 +1034,7 @@
         <v>41880</v>
       </c>
       <c r="B58" t="n">
-        <v>70736.00000000003</v>
+        <v>89156.51050000003</v>
       </c>
     </row>
     <row r="59">
@@ -1042,7 +1042,7 @@
         <v>41912</v>
       </c>
       <c r="B59" t="n">
-        <v>74008.00000000003</v>
+        <v>100866.5875000001</v>
       </c>
     </row>
     <row r="60">
@@ -1050,7 +1050,7 @@
         <v>41943</v>
       </c>
       <c r="B60" t="n">
-        <v>72607.20000000003</v>
+        <v>100873.953</v>
       </c>
     </row>
     <row r="61">
@@ -1058,7 +1058,7 @@
         <v>41971</v>
       </c>
       <c r="B61" t="n">
-        <v>73536.20000000003</v>
+        <v>115469.265</v>
       </c>
     </row>
     <row r="62">
@@ -1066,7 +1066,7 @@
         <v>42004</v>
       </c>
       <c r="B62" t="n">
-        <v>73479.60000000003</v>
+        <v>116184.51</v>
       </c>
     </row>
     <row r="63">
@@ -1074,7 +1074,7 @@
         <v>42034</v>
       </c>
       <c r="B63" t="n">
-        <v>71363.00000000003</v>
+        <v>136732.4430000001</v>
       </c>
     </row>
     <row r="64">
@@ -1082,7 +1082,7 @@
         <v>42062</v>
       </c>
       <c r="B64" t="n">
-        <v>70815.00000000003</v>
+        <v>124724.1525000001</v>
       </c>
     </row>
     <row r="65">
@@ -1090,7 +1090,7 @@
         <v>42094</v>
       </c>
       <c r="B65" t="n">
-        <v>71110.80000000002</v>
+        <v>128311.6525000001</v>
       </c>
     </row>
     <row r="66">
@@ -1098,7 +1098,7 @@
         <v>42124</v>
       </c>
       <c r="B66" t="n">
-        <v>68342.40000000002</v>
+        <v>120634.5825000001</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>42153</v>
       </c>
       <c r="B67" t="n">
-        <v>65943.00000000003</v>
+        <v>118348.8025</v>
       </c>
     </row>
     <row r="68">
@@ -1114,7 +1114,7 @@
         <v>42185</v>
       </c>
       <c r="B68" t="n">
-        <v>65450.20000000003</v>
+        <v>123210.0775</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         <v>42216</v>
       </c>
       <c r="B69" t="n">
-        <v>66939.80000000002</v>
+        <v>107385.7025</v>
       </c>
     </row>
     <row r="70">
@@ -1130,7 +1130,7 @@
         <v>42247</v>
       </c>
       <c r="B70" t="n">
-        <v>65858.80000000002</v>
+        <v>103658.6475</v>
       </c>
     </row>
     <row r="71">
@@ -1138,7 +1138,7 @@
         <v>42277</v>
       </c>
       <c r="B71" t="n">
-        <v>65991.20000000001</v>
+        <v>106196.1475</v>
       </c>
     </row>
     <row r="72">
@@ -1146,7 +1146,7 @@
         <v>42307</v>
       </c>
       <c r="B72" t="n">
-        <v>65517.00000000002</v>
+        <v>100606.3825</v>
       </c>
     </row>
     <row r="73">
@@ -1154,7 +1154,7 @@
         <v>42338</v>
       </c>
       <c r="B73" t="n">
-        <v>65976.20000000001</v>
+        <v>99972.86950000006</v>
       </c>
     </row>
     <row r="74">
@@ -1162,7 +1162,7 @@
         <v>42369</v>
       </c>
       <c r="B74" t="n">
-        <v>66323.40000000002</v>
+        <v>99913.59250000003</v>
       </c>
     </row>
     <row r="75">
@@ -1170,7 +1170,7 @@
         <v>42398</v>
       </c>
       <c r="B75" t="n">
-        <v>65675.60000000002</v>
+        <v>100467.4625</v>
       </c>
     </row>
     <row r="76">
@@ -1178,7 +1178,7 @@
         <v>42429</v>
       </c>
       <c r="B76" t="n">
-        <v>66662.20000000001</v>
+        <v>105804.9625</v>
       </c>
     </row>
     <row r="77">
@@ -1186,7 +1186,7 @@
         <v>42460</v>
       </c>
       <c r="B77" t="n">
-        <v>64511.00000000001</v>
+        <v>100096.1475</v>
       </c>
     </row>
     <row r="78">
@@ -1194,7 +1194,7 @@
         <v>42489</v>
       </c>
       <c r="B78" t="n">
-        <v>62608.60000000003</v>
+        <v>101452.2225</v>
       </c>
     </row>
     <row r="79">
@@ -1202,7 +1202,7 @@
         <v>42521</v>
       </c>
       <c r="B79" t="n">
-        <v>62693.60000000002</v>
+        <v>101439.7225</v>
       </c>
     </row>
     <row r="80">
@@ -1210,7 +1210,7 @@
         <v>42551</v>
       </c>
       <c r="B80" t="n">
-        <v>65028.00000000001</v>
+        <v>104783.9975</v>
       </c>
     </row>
     <row r="81">
@@ -1218,7 +1218,7 @@
         <v>42580</v>
       </c>
       <c r="B81" t="n">
-        <v>68529.40000000002</v>
+        <v>101148.0595</v>
       </c>
     </row>
     <row r="82">
@@ -1226,7 +1226,7 @@
         <v>42613</v>
       </c>
       <c r="B82" t="n">
-        <v>66150.60000000002</v>
+        <v>102296.4645</v>
       </c>
     </row>
     <row r="83">
@@ -1234,7 +1234,7 @@
         <v>42643</v>
       </c>
       <c r="B83" t="n">
-        <v>68883.40000000002</v>
+        <v>102566.4645</v>
       </c>
     </row>
     <row r="84">
@@ -1242,7 +1242,7 @@
         <v>42674</v>
       </c>
       <c r="B84" t="n">
-        <v>67281.80000000002</v>
+        <v>101303.8615</v>
       </c>
     </row>
     <row r="85">
@@ -1250,7 +1250,7 @@
         <v>42704</v>
       </c>
       <c r="B85" t="n">
-        <v>67030.20000000003</v>
+        <v>98175.86499999999</v>
       </c>
     </row>
     <row r="86">
@@ -1258,7 +1258,7 @@
         <v>42734</v>
       </c>
       <c r="B86" t="n">
-        <v>66593.40000000002</v>
+        <v>97014.927</v>
       </c>
     </row>
     <row r="87">
@@ -1266,7 +1266,7 @@
         <v>42766</v>
       </c>
       <c r="B87" t="n">
-        <v>65706.60000000003</v>
+        <v>96344.302</v>
       </c>
     </row>
     <row r="88">
@@ -1274,7 +1274,7 @@
         <v>42794</v>
       </c>
       <c r="B88" t="n">
-        <v>65591.60000000003</v>
+        <v>102352.335</v>
       </c>
     </row>
     <row r="89">
@@ -1282,7 +1282,7 @@
         <v>42825</v>
       </c>
       <c r="B89" t="n">
-        <v>67542.60000000003</v>
+        <v>101151.9425</v>
       </c>
     </row>
     <row r="90">
@@ -1290,7 +1290,7 @@
         <v>42853</v>
       </c>
       <c r="B90" t="n">
-        <v>67407.80000000003</v>
+        <v>107690.878</v>
       </c>
     </row>
     <row r="91">
@@ -1298,7 +1298,7 @@
         <v>42886</v>
       </c>
       <c r="B91" t="n">
-        <v>67719.00000000003</v>
+        <v>118406.815</v>
       </c>
     </row>
     <row r="92">
@@ -1306,7 +1306,7 @@
         <v>42916</v>
       </c>
       <c r="B92" t="n">
-        <v>70887.60000000002</v>
+        <v>112366.428</v>
       </c>
     </row>
     <row r="93">
@@ -1314,7 +1314,7 @@
         <v>42947</v>
       </c>
       <c r="B93" t="n">
-        <v>69520.60000000002</v>
+        <v>108884.3075</v>
       </c>
     </row>
     <row r="94">
@@ -1322,7 +1322,7 @@
         <v>42978</v>
       </c>
       <c r="B94" t="n">
-        <v>68387.40000000002</v>
+        <v>103006.068</v>
       </c>
     </row>
     <row r="95">
@@ -1330,7 +1330,7 @@
         <v>43007</v>
       </c>
       <c r="B95" t="n">
-        <v>68387.40000000002</v>
+        <v>101497.965</v>
       </c>
     </row>
     <row r="96">
@@ -1338,7 +1338,7 @@
         <v>43039</v>
       </c>
       <c r="B96" t="n">
-        <v>68387.40000000002</v>
+        <v>103654.7545000001</v>
       </c>
     </row>
     <row r="97">
@@ -1346,7 +1346,7 @@
         <v>43069</v>
       </c>
       <c r="B97" t="n">
-        <v>68005.40000000002</v>
+        <v>106089.7545</v>
       </c>
     </row>
     <row r="98">
@@ -1354,7 +1354,7 @@
         <v>43098</v>
       </c>
       <c r="B98" t="n">
-        <v>69303.40000000002</v>
+        <v>107089.4425</v>
       </c>
     </row>
     <row r="99">
@@ -1362,7 +1362,7 @@
         <v>43131</v>
       </c>
       <c r="B99" t="n">
-        <v>69020.40000000002</v>
+        <v>136473.8175</v>
       </c>
     </row>
     <row r="100">
@@ -1370,7 +1370,7 @@
         <v>43159</v>
       </c>
       <c r="B100" t="n">
-        <v>70044.20000000003</v>
+        <v>119193.1925</v>
       </c>
     </row>
     <row r="101">
@@ -1378,7 +1378,7 @@
         <v>43188</v>
       </c>
       <c r="B101" t="n">
-        <v>71906.55000000002</v>
+        <v>115605.6925</v>
       </c>
     </row>
     <row r="102">
@@ -1386,7 +1386,7 @@
         <v>43220</v>
       </c>
       <c r="B102" t="n">
-        <v>71163.85000000002</v>
+        <v>115568.1925</v>
       </c>
     </row>
     <row r="103">
@@ -1394,7 +1394,7 @@
         <v>43251</v>
       </c>
       <c r="B103" t="n">
-        <v>73345.55000000002</v>
+        <v>109658.662</v>
       </c>
     </row>
     <row r="104">
@@ -1402,7 +1402,7 @@
         <v>43280</v>
       </c>
       <c r="B104" t="n">
-        <v>70524.30000000002</v>
+        <v>119425.7345</v>
       </c>
     </row>
     <row r="105">
@@ -1410,7 +1410,7 @@
         <v>43312</v>
       </c>
       <c r="B105" t="n">
-        <v>73459.90000000002</v>
+        <v>118631.9845</v>
       </c>
     </row>
     <row r="106">
@@ -1418,7 +1418,7 @@
         <v>43343</v>
       </c>
       <c r="B106" t="n">
-        <v>77585.15000000002</v>
+        <v>122050.7345</v>
       </c>
     </row>
     <row r="107">
@@ -1426,7 +1426,7 @@
         <v>43371</v>
       </c>
       <c r="B107" t="n">
-        <v>77424.40000000002</v>
+        <v>123660.2465</v>
       </c>
     </row>
     <row r="108">
@@ -1434,7 +1434,7 @@
         <v>43404</v>
       </c>
       <c r="B108" t="n">
-        <v>74485.65000000002</v>
+        <v>118883.607</v>
       </c>
     </row>
     <row r="109">
@@ -1442,7 +1442,7 @@
         <v>43434</v>
       </c>
       <c r="B109" t="n">
-        <v>74048.65000000002</v>
+        <v>114412.507</v>
       </c>
     </row>
     <row r="110">
@@ -1450,7 +1450,7 @@
         <v>43465</v>
       </c>
       <c r="B110" t="n">
-        <v>74250.65000000005</v>
+        <v>114285.772</v>
       </c>
     </row>
     <row r="111">
@@ -1458,7 +1458,7 @@
         <v>43496</v>
       </c>
       <c r="B111" t="n">
-        <v>73150.65000000004</v>
+        <v>113392.022</v>
       </c>
     </row>
     <row r="112">
@@ -1466,7 +1466,7 @@
         <v>43524</v>
       </c>
       <c r="B112" t="n">
-        <v>74730.65000000004</v>
+        <v>110935.772</v>
       </c>
     </row>
     <row r="113">
@@ -1474,7 +1474,7 @@
         <v>43553</v>
       </c>
       <c r="B113" t="n">
-        <v>73405.65000000004</v>
+        <v>119145.147</v>
       </c>
     </row>
     <row r="114">
@@ -1482,7 +1482,7 @@
         <v>43585</v>
       </c>
       <c r="B114" t="n">
-        <v>74849.40000000004</v>
+        <v>119111.022</v>
       </c>
     </row>
     <row r="115">
@@ -1490,7 +1490,7 @@
         <v>43616</v>
       </c>
       <c r="B115" t="n">
-        <v>75480.80000000005</v>
+        <v>127802.11</v>
       </c>
     </row>
     <row r="116">
@@ -1498,7 +1498,7 @@
         <v>43644</v>
       </c>
       <c r="B116" t="n">
-        <v>75843.00000000003</v>
+        <v>128766.172</v>
       </c>
     </row>
     <row r="117">
@@ -1506,7 +1506,7 @@
         <v>43677</v>
       </c>
       <c r="B117" t="n">
-        <v>76380.60000000003</v>
+        <v>127873.985</v>
       </c>
     </row>
     <row r="118">
@@ -1514,7 +1514,7 @@
         <v>43707</v>
       </c>
       <c r="B118" t="n">
-        <v>80084.00000000003</v>
+        <v>145622.422</v>
       </c>
     </row>
     <row r="119">
@@ -1522,7 +1522,7 @@
         <v>43738</v>
       </c>
       <c r="B119" t="n">
-        <v>76942.60000000003</v>
+        <v>134879.4645</v>
       </c>
     </row>
     <row r="120">
@@ -1530,7 +1530,7 @@
         <v>43769</v>
       </c>
       <c r="B120" t="n">
-        <v>76197.60000000003</v>
+        <v>125115.982</v>
       </c>
     </row>
     <row r="121">
@@ -1538,7 +1538,7 @@
         <v>43798</v>
       </c>
       <c r="B121" t="n">
-        <v>78261.70000000004</v>
+        <v>127790.982</v>
       </c>
     </row>
     <row r="122">
@@ -1546,7 +1546,7 @@
         <v>43830</v>
       </c>
       <c r="B122" t="n">
-        <v>84638.05000000005</v>
+        <v>133607.652</v>
       </c>
     </row>
     <row r="123">
@@ -1554,7 +1554,7 @@
         <v>43861</v>
       </c>
       <c r="B123" t="n">
-        <v>79164.60000000003</v>
+        <v>128181.375</v>
       </c>
     </row>
     <row r="124">
@@ -1562,7 +1562,7 @@
         <v>43889</v>
       </c>
       <c r="B124" t="n">
-        <v>80463.40000000002</v>
+        <v>130432.937</v>
       </c>
     </row>
     <row r="125">
@@ -1570,7 +1570,7 @@
         <v>43921</v>
       </c>
       <c r="B125" t="n">
-        <v>86209.40000000002</v>
+        <v>130586.062</v>
       </c>
     </row>
     <row r="126">
@@ -1578,7 +1578,7 @@
         <v>43951</v>
       </c>
       <c r="B126" t="n">
-        <v>83702.00000000003</v>
+        <v>131523.562</v>
       </c>
     </row>
     <row r="127">
@@ -1586,7 +1586,7 @@
         <v>43980</v>
       </c>
       <c r="B127" t="n">
-        <v>82967.20000000003</v>
+        <v>134439.187</v>
       </c>
     </row>
     <row r="128">
@@ -1594,7 +1594,7 @@
         <v>44012</v>
       </c>
       <c r="B128" t="n">
-        <v>81304.80000000005</v>
+        <v>131084.4500000001</v>
       </c>
     </row>
     <row r="129">
@@ -1602,7 +1602,7 @@
         <v>44043</v>
       </c>
       <c r="B129" t="n">
-        <v>81189.80000000005</v>
+        <v>132846.7120000001</v>
       </c>
     </row>
     <row r="130">
@@ -1610,7 +1610,7 @@
         <v>44074</v>
       </c>
       <c r="B130" t="n">
-        <v>81790.20000000004</v>
+        <v>131851.4795000001</v>
       </c>
     </row>
     <row r="131">
@@ -1618,7 +1618,7 @@
         <v>44104</v>
       </c>
       <c r="B131" t="n">
-        <v>81316.00000000003</v>
+        <v>133082.7295000001</v>
       </c>
     </row>
     <row r="132">
@@ -1626,7 +1626,7 @@
         <v>44134</v>
       </c>
       <c r="B132" t="n">
-        <v>83553.00000000003</v>
+        <v>138404.0145000001</v>
       </c>
     </row>
     <row r="133">
@@ -1634,7 +1634,7 @@
         <v>44165</v>
       </c>
       <c r="B133" t="n">
-        <v>84366.00000000003</v>
+        <v>140554.1145000001</v>
       </c>
     </row>
     <row r="134">
@@ -1642,7 +1642,7 @@
         <v>44196</v>
       </c>
       <c r="B134" t="n">
-        <v>88448.60000000003</v>
+        <v>156400.8845000001</v>
       </c>
     </row>
     <row r="135">
@@ -1650,7 +1650,7 @@
         <v>44225</v>
       </c>
       <c r="B135" t="n">
-        <v>90089.40000000004</v>
+        <v>161567.3645000001</v>
       </c>
     </row>
     <row r="136">
@@ -1658,7 +1658,7 @@
         <v>44253</v>
       </c>
       <c r="B136" t="n">
-        <v>95214.20000000004</v>
+        <v>168645.9690000001</v>
       </c>
     </row>
     <row r="137">
@@ -1666,7 +1666,7 @@
         <v>44286</v>
       </c>
       <c r="B137" t="n">
-        <v>90421.20000000004</v>
+        <v>176622.5320000001</v>
       </c>
     </row>
     <row r="138">
@@ -1674,7 +1674,7 @@
         <v>44316</v>
       </c>
       <c r="B138" t="n">
-        <v>90286.80000000005</v>
+        <v>185852.2190000001</v>
       </c>
     </row>
     <row r="139">
@@ -1682,7 +1682,7 @@
         <v>44344</v>
       </c>
       <c r="B139" t="n">
-        <v>90712.40000000004</v>
+        <v>180550.4520000001</v>
       </c>
     </row>
     <row r="140">
@@ -1690,7 +1690,7 @@
         <v>44377</v>
       </c>
       <c r="B140" t="n">
-        <v>89732.80000000005</v>
+        <v>175696.9845000001</v>
       </c>
     </row>
     <row r="141">
@@ -1698,7 +1698,7 @@
         <v>44407</v>
       </c>
       <c r="B141" t="n">
-        <v>88825.60000000003</v>
+        <v>171199.0220000001</v>
       </c>
     </row>
     <row r="142">
@@ -1706,7 +1706,7 @@
         <v>44439</v>
       </c>
       <c r="B142" t="n">
-        <v>91122.20000000004</v>
+        <v>169378.762</v>
       </c>
     </row>
     <row r="143">
@@ -1714,7 +1714,7 @@
         <v>44469</v>
       </c>
       <c r="B143" t="n">
-        <v>94078.40000000005</v>
+        <v>167181.379</v>
       </c>
     </row>
     <row r="144">
@@ -1722,7 +1722,7 @@
         <v>44498</v>
       </c>
       <c r="B144" t="n">
-        <v>97623.80000000005</v>
+        <v>168023.5670000001</v>
       </c>
     </row>
     <row r="145">
@@ -1730,7 +1730,7 @@
         <v>44530</v>
       </c>
       <c r="B145" t="n">
-        <v>95156.80000000003</v>
+        <v>169801.8920000001</v>
       </c>
     </row>
     <row r="146">
@@ -1738,7 +1738,7 @@
         <v>44561</v>
       </c>
       <c r="B146" t="n">
-        <v>96667.40000000005</v>
+        <v>170230.0170000001</v>
       </c>
     </row>
     <row r="147">
@@ -1746,7 +1746,7 @@
         <v>44592</v>
       </c>
       <c r="B147" t="n">
-        <v>104891.6</v>
+        <v>170664.7040000001</v>
       </c>
     </row>
     <row r="148">
@@ -1754,7 +1754,7 @@
         <v>44620</v>
       </c>
       <c r="B148" t="n">
-        <v>101759.4</v>
+        <v>171256.8920000001</v>
       </c>
     </row>
     <row r="149">
@@ -1762,7 +1762,215 @@
         <v>44651</v>
       </c>
       <c r="B149" t="n">
-        <v>109064.8</v>
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B150" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B151" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B152" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B153" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B154" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B155" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B156" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B157" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B158" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B159" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B160" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B161" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B162" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B163" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B164" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B165" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B166" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B167" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B168" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B169" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B170" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B171" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B172" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B173" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B174" t="n">
+        <v>187032.9920000001</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B175" t="n">
+        <v>187032.9920000001</v>
       </c>
     </row>
   </sheetData>

--- a/TradingSimula_18-2022/TF-Boll-RiskFilt2_1R.xlsx
+++ b/TradingSimula_18-2022/TF-Boll-RiskFilt2_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$174</f>
+              <f>'EquityCurve'!$A$3:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$174</f>
+              <f>'EquityCurve'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B175"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1386 +591,2362 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36556</v>
       </c>
       <c r="B3" t="n">
-        <v>-4063.800000000001</v>
+        <v>-2220.549999999997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36585</v>
       </c>
       <c r="B4" t="n">
-        <v>-11001.3775</v>
+        <v>-1983.424999999994</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B5" t="n">
-        <v>-4238.877499999995</v>
+        <v>-7512.844999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36644</v>
       </c>
       <c r="B6" t="n">
-        <v>-6554.852499999993</v>
+        <v>-12710.78250000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="n">
-        <v>748.7725000000019</v>
+        <v>-1321.257500000006</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="n">
-        <v>4044.085500000005</v>
+        <v>-3069.657500000005</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36738</v>
       </c>
       <c r="B9" t="n">
-        <v>15567.52250000001</v>
+        <v>-7629.2575</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36769</v>
       </c>
       <c r="B10" t="n">
-        <v>25209.71050000001</v>
+        <v>-1264.45750000002</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36798</v>
       </c>
       <c r="B11" t="n">
-        <v>35743.46050000001</v>
+        <v>-14739.50750000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36830</v>
       </c>
       <c r="B12" t="n">
-        <v>48950.17250000002</v>
+        <v>-15954.7425</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B13" t="n">
-        <v>42391.38000000002</v>
+        <v>-8022.692499999988</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B14" t="n">
-        <v>62538.95700000003</v>
+        <v>4876.307499999996</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B15" t="n">
-        <v>66264.27000000003</v>
+        <v>-2478.067499999996</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B16" t="n">
-        <v>70537.08200000002</v>
+        <v>1771.3825</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B17" t="n">
-        <v>57354.72500000003</v>
+        <v>11724.88250000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B18" t="n">
-        <v>62729.09800000001</v>
+        <v>4570.567499999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B19" t="n">
-        <v>63835.89800000002</v>
+        <v>5384.967499999996</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B20" t="n">
-        <v>57569.33500000001</v>
+        <v>-6470.764999999991</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37103</v>
       </c>
       <c r="B21" t="n">
-        <v>67047.46000000001</v>
+        <v>-9599.194999999992</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B22" t="n">
-        <v>81197.46000000001</v>
+        <v>-9286.045000000016</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B23" t="n">
-        <v>93113.71000000001</v>
+        <v>-7674.444999999992</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B24" t="n">
-        <v>72825.98</v>
+        <v>910.8050000000021</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B25" t="n">
-        <v>75150.98</v>
+        <v>-18320.02000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B26" t="n">
-        <v>70809.7205</v>
+        <v>-16671.66750000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B27" t="n">
-        <v>69748.7825</v>
+        <v>-15916.51750000002</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B28" t="n">
-        <v>77509.21750000001</v>
+        <v>-24122.89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37343</v>
       </c>
       <c r="B29" t="n">
-        <v>88766.85250000001</v>
+        <v>-19560.44500000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>83867.30999999998</v>
+        <v>-23409.57500000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B31" t="n">
-        <v>68775.185</v>
+        <v>-20709.77500000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B32" t="n">
-        <v>58029.8775</v>
+        <v>4878.720000000005</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B33" t="n">
-        <v>59172.3775</v>
+        <v>14825.36999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B34" t="n">
-        <v>57248.978</v>
+        <v>21432.245</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B35" t="n">
-        <v>57010.25749999999</v>
+        <v>34536.56999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B36" t="n">
-        <v>52239.00749999999</v>
+        <v>21331.75499999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B37" t="n">
-        <v>48576.1825</v>
+        <v>19401.12999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B38" t="n">
-        <v>56894.05750000002</v>
+        <v>19299.49499999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B39" t="n">
-        <v>61403.21500000003</v>
+        <v>32828.59500000002</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>70435.41750000004</v>
+        <v>37193.47999999998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41362</v>
+        <v>37711</v>
       </c>
       <c r="B41" t="n">
-        <v>76597.91750000004</v>
+        <v>14403.87249999998</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B42" t="n">
-        <v>78899.41000000005</v>
+        <v>9000.12249999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>83254.38250000005</v>
+        <v>6976.349999999979</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B44" t="n">
-        <v>76139.06950000004</v>
+        <v>3653.549999999985</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B45" t="n">
-        <v>74498.75750000004</v>
+        <v>84.74999999995975</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B46" t="n">
-        <v>75454.06950000004</v>
+        <v>1592.499999999966</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>77842.25750000004</v>
+        <v>-13468.32250000005</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B48" t="n">
-        <v>77442.155</v>
+        <v>-7747.572500000035</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B49" t="n">
-        <v>82332.405</v>
+        <v>-13011.22250000006</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>89559.00749999998</v>
+        <v>-9576.615000000049</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>79739.00749999999</v>
+        <v>-4998.205000000027</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>79009.85749999998</v>
+        <v>-4391.980000000029</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>78050.55749999997</v>
+        <v>-20012.24000000002</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>81463.0575</v>
+        <v>-23046.56000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38135</v>
       </c>
       <c r="B55" t="n">
-        <v>75418.34250000003</v>
+        <v>-25417.73500000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>76700.58250000002</v>
+        <v>-30244.13500000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>78284.75750000007</v>
+        <v>-27390.42000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>89156.51050000003</v>
+        <v>-32114.11000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>100866.5875000001</v>
+        <v>-32535.18500000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>100873.953</v>
+        <v>-30409.63500000002</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>115469.265</v>
+        <v>-16722.66500000002</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>116184.51</v>
+        <v>-18418.94000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>136732.4430000001</v>
+        <v>-29020.73999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>124724.1525000001</v>
+        <v>-21633.29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>128311.6525000001</v>
+        <v>-23655.98999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>120634.5825000001</v>
+        <v>-35759.72000000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>118348.8025</v>
+        <v>-39557.52</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>123210.0775</v>
+        <v>-41157.31999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>107385.7025</v>
+        <v>-41216.895</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>103658.6475</v>
+        <v>-53285.80500000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>106196.1475</v>
+        <v>-50079.00500000002</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>100606.3825</v>
+        <v>-47016.41750000003</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>99972.86950000006</v>
+        <v>-41423.91750000004</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>99913.59250000003</v>
+        <v>-47956.54750000003</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>100467.4625</v>
+        <v>-36550.74750000003</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>105804.9625</v>
+        <v>-39151.53750000003</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>100096.1475</v>
+        <v>-35804.86250000002</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>101452.2225</v>
+        <v>-25481.81250000003</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>101439.7225</v>
+        <v>-19429.83750000003</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>104783.9975</v>
+        <v>-34890.31250000002</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>101148.0595</v>
+        <v>-39963.27000000002</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>102296.4645</v>
+        <v>-37474.95250000002</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>102566.4645</v>
+        <v>-42539.70250000001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>101303.8615</v>
+        <v>-38471.64000000004</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>98175.86499999999</v>
+        <v>-19124.27750000004</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>97014.927</v>
+        <v>-25708.05750000004</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>96344.302</v>
+        <v>-33921.45500000005</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>102352.335</v>
+        <v>-42124.37500000005</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>101151.9425</v>
+        <v>-51218.10500000008</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>107690.878</v>
+        <v>-46747.69000000007</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>118406.815</v>
+        <v>-54848.18000000004</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>112366.428</v>
+        <v>-46742.88000000005</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>108884.3075</v>
+        <v>-47242.80250000003</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>103006.068</v>
+        <v>-52269.48000000003</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>101497.965</v>
+        <v>-42184.93000000002</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>103654.7545000001</v>
+        <v>-44282.85500000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>106089.7545</v>
+        <v>-36006.73000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>107089.4425</v>
+        <v>-39198.40500000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>136473.8175</v>
+        <v>-26654.73000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>119193.1925</v>
+        <v>-9768.530000000012</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>115605.6925</v>
+        <v>-18145.58000000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>115568.1925</v>
+        <v>-23472.6125</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>109658.662</v>
+        <v>-16341.3875</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>119425.7345</v>
+        <v>-16389.70249999999</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>118631.9845</v>
+        <v>-25819.765</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>122050.7345</v>
+        <v>-20866.76500000001</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>123660.2465</v>
+        <v>-15123.505</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>118883.607</v>
+        <v>6394.20749999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>114412.507</v>
+        <v>12467.47249999999</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>114285.772</v>
+        <v>18778.72249999998</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>113392.022</v>
+        <v>17424.8075</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>110935.772</v>
+        <v>19023.58</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>119145.147</v>
+        <v>12510.805</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>119111.022</v>
+        <v>15750.905</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>127802.11</v>
+        <v>26606.01</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>128766.172</v>
+        <v>22146.785</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>127873.985</v>
+        <v>24179.8425</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>145622.422</v>
+        <v>31473.69249999999</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>134879.4645</v>
+        <v>37393.69249999999</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>125115.982</v>
+        <v>23976.35749999998</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>127790.982</v>
+        <v>32187.37999999999</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>133607.652</v>
+        <v>36400.76499999998</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>128181.375</v>
+        <v>28305.58499999997</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>130432.937</v>
+        <v>18901.48499999996</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>130586.062</v>
+        <v>18174.42499999996</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>131523.562</v>
+        <v>15625.96499999997</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40326</v>
       </c>
       <c r="B127" t="n">
-        <v>134439.187</v>
+        <v>13096.82749999998</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>131084.4500000001</v>
+        <v>27742.1375</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>132846.7120000001</v>
+        <v>40803.32749999998</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>131851.4795000001</v>
+        <v>50891.36249999998</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>133082.7295000001</v>
+        <v>70291.7175</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>138404.0145000001</v>
+        <v>95708.22749999996</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>140554.1145000001</v>
+        <v>83283.27999999998</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>156400.8845000001</v>
+        <v>117198.6725</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>161567.3645000001</v>
+        <v>134286.4875</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>168645.9690000001</v>
+        <v>151991.5974999999</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>176622.5320000001</v>
+        <v>143096.7075</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>185852.2190000001</v>
+        <v>136847.4024999999</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>180550.4520000001</v>
+        <v>131219.59</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>175696.9845000001</v>
+        <v>122213.325</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>171199.0220000001</v>
+        <v>126446.2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>169378.762</v>
+        <v>130049.015</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>167181.379</v>
+        <v>133041.015</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>168023.5670000001</v>
+        <v>124566.39</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>169801.8920000001</v>
+        <v>126286.29</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>170230.0170000001</v>
+        <v>122429.34</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>170664.7040000001</v>
+        <v>118231.5975</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>171256.8920000001</v>
+        <v>123397.305</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44651</v>
+        <v>40998</v>
       </c>
       <c r="B149" t="n">
-        <v>187032.9920000001</v>
+        <v>128018.83</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44680</v>
+        <v>41029</v>
       </c>
       <c r="B150" t="n">
-        <v>187032.9920000001</v>
+        <v>119436.1475</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44712</v>
+        <v>41060</v>
       </c>
       <c r="B151" t="n">
-        <v>187032.9920000001</v>
+        <v>112782.9475</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44742</v>
+        <v>41089</v>
       </c>
       <c r="B152" t="n">
-        <v>187032.9920000001</v>
+        <v>101040.1475</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44771</v>
+        <v>41121</v>
       </c>
       <c r="B153" t="n">
-        <v>187032.9920000001</v>
+        <v>99870.72</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44804</v>
+        <v>41152</v>
       </c>
       <c r="B154" t="n">
-        <v>187032.9920000001</v>
+        <v>98191.9875</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44834</v>
+        <v>41180</v>
       </c>
       <c r="B155" t="n">
-        <v>187032.9920000001</v>
+        <v>96989.03749999996</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44865</v>
+        <v>41213</v>
       </c>
       <c r="B156" t="n">
-        <v>187032.9920000001</v>
+        <v>88534.13500000001</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44895</v>
+        <v>41243</v>
       </c>
       <c r="B157" t="n">
-        <v>187032.9920000001</v>
+        <v>82861.96249999999</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44925</v>
+        <v>41274</v>
       </c>
       <c r="B158" t="n">
-        <v>187032.9920000001</v>
+        <v>88385.41250000001</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44957</v>
+        <v>41305</v>
       </c>
       <c r="B159" t="n">
-        <v>187032.9920000001</v>
+        <v>96354.9725</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44985</v>
+        <v>41333</v>
       </c>
       <c r="B160" t="n">
-        <v>187032.9920000001</v>
+        <v>105665.7425</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45016</v>
+        <v>41361</v>
       </c>
       <c r="B161" t="n">
-        <v>187032.9920000001</v>
+        <v>110098.755</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45044</v>
+        <v>41394</v>
       </c>
       <c r="B162" t="n">
-        <v>187032.9920000001</v>
+        <v>110378.3975</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45077</v>
+        <v>41425</v>
       </c>
       <c r="B163" t="n">
-        <v>187032.9920000001</v>
+        <v>119043.1975</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45107</v>
+        <v>41453</v>
       </c>
       <c r="B164" t="n">
-        <v>187032.9920000001</v>
+        <v>110041.4825</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45138</v>
+        <v>41486</v>
       </c>
       <c r="B165" t="n">
-        <v>187032.9920000001</v>
+        <v>109685.9675</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45169</v>
+        <v>41516</v>
       </c>
       <c r="B166" t="n">
-        <v>187032.9920000001</v>
+        <v>112112.2175</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45198</v>
+        <v>41547</v>
       </c>
       <c r="B167" t="n">
-        <v>187032.9920000001</v>
+        <v>114434.445</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45230</v>
+        <v>41578</v>
       </c>
       <c r="B168" t="n">
-        <v>187032.9920000001</v>
+        <v>116068.295</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45260</v>
+        <v>41607</v>
       </c>
       <c r="B169" t="n">
-        <v>187032.9920000001</v>
+        <v>119488.0450000001</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45289</v>
+        <v>41639</v>
       </c>
       <c r="B170" t="n">
-        <v>187032.9920000001</v>
+        <v>128844.2200000001</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45322</v>
+        <v>41670</v>
       </c>
       <c r="B171" t="n">
-        <v>187032.9920000001</v>
+        <v>117751.5525000001</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45351</v>
+        <v>41698</v>
       </c>
       <c r="B172" t="n">
-        <v>187032.9920000001</v>
+        <v>109383.5025000001</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45379</v>
+        <v>41729</v>
       </c>
       <c r="B173" t="n">
-        <v>187032.9920000001</v>
+        <v>107493.6650000001</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45412</v>
+        <v>41759</v>
       </c>
       <c r="B174" t="n">
-        <v>187032.9920000001</v>
+        <v>108207.2675000001</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45415</v>
+        <v>41789</v>
       </c>
       <c r="B175" t="n">
-        <v>187032.9920000001</v>
+        <v>96477.29250000007</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B176" t="n">
+        <v>101701.5175000001</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B177" t="n">
+        <v>109530.1175000001</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B178" t="n">
+        <v>115718.3175000001</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B179" t="n">
+        <v>133220.2325</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B180" t="n">
+        <v>128207.1575000001</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B181" t="n">
+        <v>139113.3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B182" t="n">
+        <v>136098.5750000001</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>146654.6700000001</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B184" t="n">
+        <v>141709.6525000001</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B185" t="n">
+        <v>147288.4525000001</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>137321.7025000001</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B187" t="n">
+        <v>130605.1025000001</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B188" t="n">
+        <v>135843.5525</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B189" t="n">
+        <v>121101.1875000001</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B190" t="n">
+        <v>114158.9975000001</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>113731.9650000001</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B192" t="n">
+        <v>111016.1675000001</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B193" t="n">
+        <v>111511.5550000001</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B194" t="n">
+        <v>110369.3850000001</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B195" t="n">
+        <v>106443.0850000001</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B196" t="n">
+        <v>111843.3000000001</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B197" t="n">
+        <v>99736.77000000008</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>95360.87000000008</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B199" t="n">
+        <v>95067.72500000008</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>100750.5300000001</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B201" t="n">
+        <v>105911.9950000001</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B202" t="n">
+        <v>103063.0375000001</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B203" t="n">
+        <v>106620.8375000001</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B204" t="n">
+        <v>102763.7000000001</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B205" t="n">
+        <v>102121.8750000001</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B206" t="n">
+        <v>97803.69000000003</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>100132.0600000001</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B208" t="n">
+        <v>108329.7425000001</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B209" t="n">
+        <v>105199.9625000001</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B210" t="n">
+        <v>107614.4000000001</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B211" t="n">
+        <v>108877.4400000001</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B212" t="n">
+        <v>112290.7250000001</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B213" t="n">
+        <v>110852.6750000001</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B214" t="n">
+        <v>101426.2150000001</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B215" t="n">
+        <v>99281.89500000014</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B216" t="n">
+        <v>97368.19500000015</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B217" t="n">
+        <v>95357.07000000015</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B218" t="n">
+        <v>99620.71000000011</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>132745.8800000002</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B220" t="n">
+        <v>117859.8800000001</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B221" t="n">
+        <v>117971.4800000001</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>114602.2350000001</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B223" t="n">
+        <v>118971.7025000001</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B224" t="n">
+        <v>110967.7025000001</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>113306.2525000001</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B226" t="n">
+        <v>114675.5025000001</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B227" t="n">
+        <v>115098.0750000001</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B228" t="n">
+        <v>116827.7750000002</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B229" t="n">
+        <v>124084.2075000002</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B230" t="n">
+        <v>111838.1100000001</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B231" t="n">
+        <v>111565.3600000001</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B232" t="n">
+        <v>107181.2350000002</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B233" t="n">
+        <v>106758.9600000002</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>101565.4850000002</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B235" t="n">
+        <v>110476.7250000002</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B236" t="n">
+        <v>116714.3350000002</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B237" t="n">
+        <v>113554.2500000002</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B238" t="n">
+        <v>134407.2450000002</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B239" t="n">
+        <v>113993.0275000002</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B240" t="n">
+        <v>108727.4050000002</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>112870.1550000002</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B242" t="n">
+        <v>121505.8250000002</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B243" t="n">
+        <v>112969.4825000002</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B244" t="n">
+        <v>114258.7725000002</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B245" t="n">
+        <v>122012.5475000002</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="n">
+        <v>116144.0475000002</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B247" t="n">
+        <v>114783.8725000002</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B248" t="n">
+        <v>110071.7125000002</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B249" t="n">
+        <v>109896.4425000002</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B250" t="n">
+        <v>114907.9350000002</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B251" t="n">
+        <v>105861.0850000002</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B252" t="n">
+        <v>111788.5925000001</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B253" t="n">
+        <v>112130.5025000001</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B254" t="n">
+        <v>125721.1125000001</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B255" t="n">
+        <v>130557.2825000002</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B256" t="n">
+        <v>142154.6450000002</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B257" t="n">
+        <v>143978.5550000002</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B258" t="n">
+        <v>144815.4450000002</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B259" t="n">
+        <v>139624.2625000002</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B260" t="n">
+        <v>136996.0850000002</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B261" t="n">
+        <v>134196.5300000002</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B262" t="n">
+        <v>139129.1875000002</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B263" t="n">
+        <v>157932.3675000003</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B264" t="n">
+        <v>158893.8175000002</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B265" t="n">
+        <v>152044.0475000002</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B266" t="n">
+        <v>147861.8775000002</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B267" t="n">
+        <v>149625.9625000002</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B268" t="n">
+        <v>151671.4875000002</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B269" t="n">
+        <v>165109.6375000002</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B270" t="n">
+        <v>189649.5625000002</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B271" t="n">
+        <v>182360.0875000002</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B272" t="n">
+        <v>192643.6875000002</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B273" t="n">
+        <v>192075.8925000002</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B274" t="n">
+        <v>196208.8925000002</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B275" t="n">
+        <v>206750.7325000002</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B276" t="n">
+        <v>203574.5925000002</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B277" t="n">
+        <v>194679.6825000002</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B278" t="n">
+        <v>194853.8825000002</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B279" t="n">
+        <v>192871.6850000002</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B280" t="n">
+        <v>188598.1450000002</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B281" t="n">
+        <v>185133.8775000002</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B282" t="n">
+        <v>193501.2575000002</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B283" t="n">
+        <v>192902.0875000003</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B284" t="n">
+        <v>190051.1625000002</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B285" t="n">
+        <v>184962.4525000002</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B286" t="n">
+        <v>184376.8875000002</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B287" t="n">
+        <v>189776.0875000002</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B288" t="n">
+        <v>193591.7275000002</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B289" t="n">
+        <v>180424.0950000002</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>191835.7000000002</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="n">
+        <v>177217.3850000002</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B292" t="n">
+        <v>179908.3775000002</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>172611.3775000002</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B294" t="n">
+        <v>174919.2525000003</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B295" t="n">
+        <v>172187.7675000002</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B296" t="n">
+        <v>165745.8150000002</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B297" t="n">
+        <v>163551.8100000002</v>
       </c>
     </row>
   </sheetData>
